--- a/src/main/resources/PAU 2022-Informatica.xlsx
+++ b/src/main/resources/PAU 2022-Informatica.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matteomancinelli/Desktop/Uni/Stage/PiattaformaPCTO_v2/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B970F3B9-AAD2-E24E-BD1B-EEEE6906650A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E55EB3C-7CF7-6A4F-BA07-7C3DE971679A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16680" xr2:uid="{0C528F13-6AAF-461C-AFF9-A96F7E366E1A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1511" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1487" uniqueCount="363">
   <si>
     <t>Filippo</t>
   </si>
@@ -1488,10 +1488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0342AE77-A209-4491-A7F8-D535B7DDEDD8}">
-  <dimension ref="A1:H190"/>
+  <dimension ref="A1:H187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
-      <selection activeCell="D150" sqref="D150"/>
+    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
+      <selection activeCell="A130" sqref="A130:XFD130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2859,10 +2859,10 @@
     </row>
     <row r="54" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>10</v>
@@ -2883,21 +2883,21 @@
         <v>334</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>343</v>
+        <v>359</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>4</v>
@@ -2909,12 +2909,12 @@
         <v>334</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>10</v>
@@ -2929,18 +2929,18 @@
         <v>4</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>126</v>
+        <v>31</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>10</v>
@@ -2955,30 +2955,30 @@
         <v>4</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>5</v>
@@ -2989,10 +2989,10 @@
     </row>
     <row r="59" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>3</v>
@@ -3015,10 +3015,10 @@
     </row>
     <row r="60" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>3</v>
@@ -3041,10 +3041,10 @@
     </row>
     <row r="61" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>36</v>
+        <v>124</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>3</v>
@@ -3065,21 +3065,21 @@
         <v>334</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>124</v>
+        <v>79</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>11</v>
@@ -3093,77 +3093,77 @@
     </row>
     <row r="63" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>133</v>
+        <v>84</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D63" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D64" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="E63" s="1" t="s">
+      <c r="E64" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F63" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="64" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="F64" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="H65" s="1" t="s">
         <v>334</v>
@@ -3171,10 +3171,10 @@
     </row>
     <row r="66" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>10</v>
@@ -3197,10 +3197,10 @@
     </row>
     <row r="67" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>10</v>
@@ -3223,10 +3223,10 @@
     </row>
     <row r="68" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>10</v>
@@ -3249,10 +3249,10 @@
     </row>
     <row r="69" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>140</v>
+        <v>36</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>10</v>
@@ -3275,10 +3275,10 @@
     </row>
     <row r="70" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>143</v>
+        <v>116</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>10</v>
@@ -3327,10 +3327,10 @@
     </row>
     <row r="72" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>116</v>
+        <v>144</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>10</v>
@@ -3353,22 +3353,22 @@
     </row>
     <row r="73" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>117</v>
+        <v>145</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>5</v>
@@ -3379,22 +3379,22 @@
     </row>
     <row r="74" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>5</v>
@@ -3405,10 +3405,10 @@
     </row>
     <row r="75" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>10</v>
@@ -3431,10 +3431,10 @@
     </row>
     <row r="76" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>148</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>10</v>
@@ -3457,19 +3457,19 @@
     </row>
     <row r="77" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>15</v>
+        <v>150</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>4</v>
@@ -3483,22 +3483,22 @@
     </row>
     <row r="78" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>148</v>
+        <v>79</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>343</v>
+        <v>357</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>5</v>
@@ -3507,53 +3507,53 @@
         <v>334</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>150</v>
+        <v>43</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>338</v>
+        <v>358</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>85</v>
+        <v>155</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>334</v>
@@ -3561,19 +3561,19 @@
     </row>
     <row r="81" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>11</v>
@@ -3585,128 +3585,128 @@
         <v>334</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>155</v>
+        <v>85</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="H82" s="1" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>88</v>
+        <v>158</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>26</v>
+        <v>102</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="H83" s="1" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>161</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C84" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C85" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D84" s="1" t="s">
+      <c r="D85" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D86" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="E84" s="1" t="s">
+      <c r="E86" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F84" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G84" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H84" s="1" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" ht="64" x14ac:dyDescent="0.2">
-      <c r="A85" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G85" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H85" s="1" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" ht="64" x14ac:dyDescent="0.2">
-      <c r="A86" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="F86" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G86" s="1" t="s">
         <v>5</v>
@@ -3715,21 +3715,21 @@
         <v>334</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>165</v>
+        <v>26</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>4</v>
@@ -3743,19 +3743,19 @@
     </row>
     <row r="88" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>167</v>
+        <v>31</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>11</v>
@@ -3769,19 +3769,19 @@
     </row>
     <row r="89" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>349</v>
+        <v>360</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>26</v>
+        <v>174</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>4</v>
@@ -3795,22 +3795,22 @@
     </row>
     <row r="90" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>31</v>
+        <v>175</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G90" s="1" t="s">
         <v>5</v>
@@ -3819,21 +3819,21 @@
         <v>334</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>4</v>
@@ -3847,22 +3847,22 @@
     </row>
     <row r="92" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G92" s="1" t="s">
         <v>5</v>
@@ -3871,50 +3871,50 @@
         <v>334</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="C93" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C94" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D93" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H93" s="1" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" ht="48" x14ac:dyDescent="0.2">
-      <c r="A94" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="D94" s="1" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G94" s="1" t="s">
         <v>5</v>
@@ -3925,22 +3925,22 @@
     </row>
     <row r="95" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>182</v>
+        <v>126</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>85</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G95" s="1" t="s">
         <v>5</v>
@@ -3951,51 +3951,51 @@
     </row>
     <row r="96" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>345</v>
+        <v>359</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>39</v>
+        <v>190</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="H96" s="1" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>126</v>
+        <v>191</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>85</v>
+        <v>174</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="H97" s="1" t="s">
         <v>334</v>
@@ -4003,19 +4003,19 @@
     </row>
     <row r="98" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>4</v>
@@ -4029,10 +4029,10 @@
     </row>
     <row r="99" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>3</v>
@@ -4044,7 +4044,7 @@
         <v>174</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G99" s="1" t="s">
         <v>14</v>
@@ -4055,10 +4055,10 @@
     </row>
     <row r="100" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>193</v>
+        <v>79</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>3</v>
@@ -4079,53 +4079,53 @@
         <v>334</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>195</v>
+        <v>43</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>174</v>
+        <v>78</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="H101" s="1" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>79</v>
+        <v>148</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>174</v>
+        <v>78</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="H102" s="1" t="s">
         <v>334</v>
@@ -4133,10 +4133,10 @@
     </row>
     <row r="103" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>10</v>
@@ -4159,10 +4159,10 @@
     </row>
     <row r="104" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>10</v>
@@ -4185,10 +4185,10 @@
     </row>
     <row r="105" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>10</v>
@@ -4209,12 +4209,12 @@
         <v>334</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>124</v>
+        <v>203</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>10</v>
@@ -4223,33 +4223,30 @@
         <v>353</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>78</v>
+        <v>206</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G106" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H106" s="1" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="107" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>88</v>
+        <v>148</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>4</v>
@@ -4261,50 +4258,53 @@
         <v>334</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>203</v>
+        <v>58</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>206</v>
+        <v>9</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>148</v>
+        <v>210</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="H109" s="1" t="s">
         <v>334</v>
@@ -4312,19 +4312,19 @@
     </row>
     <row r="110" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>58</v>
+        <v>212</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>339</v>
+        <v>360</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>9</v>
+        <v>174</v>
       </c>
       <c r="F110" s="1" t="s">
         <v>4</v>
@@ -4336,27 +4336,27 @@
         <v>334</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>210</v>
+        <v>115</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>339</v>
+        <v>353</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>9</v>
+        <v>78</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="H111" s="1" t="s">
         <v>334</v>
@@ -4364,19 +4364,19 @@
     </row>
     <row r="112" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>212</v>
+        <v>185</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>360</v>
+        <v>339</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>174</v>
+        <v>9</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>4</v>
@@ -4388,79 +4388,79 @@
         <v>334</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>115</v>
+        <v>216</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>78</v>
+        <v>218</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="H113" s="1" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>185</v>
+        <v>219</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>9</v>
+        <v>221</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="H114" s="1" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>216</v>
+        <v>92</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>218</v>
+        <v>8</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="H115" s="1" t="s">
         <v>334</v>
@@ -4468,10 +4468,10 @@
     </row>
     <row r="116" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>10</v>
@@ -4480,7 +4480,7 @@
         <v>335</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>221</v>
+        <v>8</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>11</v>
@@ -4492,12 +4492,12 @@
         <v>334</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>92</v>
+        <v>225</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>10</v>
@@ -4512,7 +4512,7 @@
         <v>11</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="H117" s="1" t="s">
         <v>334</v>
@@ -4520,19 +4520,19 @@
     </row>
     <row r="118" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>335</v>
+        <v>351</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>11</v>
@@ -4544,27 +4544,27 @@
         <v>334</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>335</v>
+        <v>359</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>8</v>
+        <v>231</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="H119" s="1" t="s">
         <v>334</v>
@@ -4572,71 +4572,71 @@
     </row>
     <row r="120" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>227</v>
+        <v>88</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C120" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="A121" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="112" x14ac:dyDescent="0.2">
+      <c r="A122" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C122" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D120" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F120" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G120" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H120" s="1" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" ht="64" x14ac:dyDescent="0.2">
-      <c r="A121" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="F121" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G121" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H121" s="1" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" ht="48" x14ac:dyDescent="0.2">
-      <c r="A122" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="D122" s="1" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>11</v>
@@ -4648,50 +4648,50 @@
         <v>334</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>79</v>
+        <v>236</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>343</v>
+        <v>360</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>30</v>
+        <v>174</v>
       </c>
       <c r="F123" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="H123" s="1" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="112" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>235</v>
+        <v>213</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>337</v>
+        <v>360</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>9</v>
+        <v>174</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G124" s="1" t="s">
         <v>5</v>
@@ -4700,12 +4700,12 @@
         <v>334</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>3</v>
@@ -4720,30 +4720,30 @@
         <v>4</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="H125" s="1" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>238</v>
+        <v>88</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>213</v>
+        <v>157</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>174</v>
+        <v>85</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G126" s="1" t="s">
         <v>5</v>
@@ -4752,21 +4752,21 @@
         <v>334</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>239</v>
+        <v>88</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>240</v>
+        <v>84</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>174</v>
+        <v>78</v>
       </c>
       <c r="F127" s="1" t="s">
         <v>4</v>
@@ -4778,76 +4778,76 @@
         <v>334</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>157</v>
+        <v>241</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="E128" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="A129" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H129" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="A130" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="E130" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F128" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G128" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H128" s="1" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A129" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F129" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G129" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H129" s="1" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A130" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="E130" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="F130" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G130" s="1" t="s">
         <v>5</v>
@@ -4858,48 +4858,48 @@
     </row>
     <row r="131" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>31</v>
+        <v>245</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D131" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H131" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="A132" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D132" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="E131" s="1" t="s">
+      <c r="E132" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F131" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G131" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H131" s="1" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" ht="96" x14ac:dyDescent="0.2">
-      <c r="A132" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="E132" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="F132" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G132" s="1" t="s">
         <v>5</v>
@@ -4910,19 +4910,19 @@
     </row>
     <row r="133" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>85</v>
+        <v>251</v>
       </c>
       <c r="F133" s="1" t="s">
         <v>11</v>
@@ -4936,19 +4936,19 @@
     </row>
     <row r="134" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>353</v>
+        <v>335</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>78</v>
+        <v>8</v>
       </c>
       <c r="F134" s="1" t="s">
         <v>11</v>
@@ -4962,10 +4962,10 @@
     </row>
     <row r="135" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>10</v>
@@ -4974,7 +4974,7 @@
         <v>335</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>8</v>
+        <v>251</v>
       </c>
       <c r="F135" s="1" t="s">
         <v>11</v>
@@ -4988,10 +4988,10 @@
     </row>
     <row r="136" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>249</v>
+        <v>79</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>10</v>
@@ -5000,7 +5000,7 @@
         <v>335</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>251</v>
+        <v>8</v>
       </c>
       <c r="F136" s="1" t="s">
         <v>11</v>
@@ -5014,10 +5014,10 @@
     </row>
     <row r="137" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>10</v>
@@ -5040,10 +5040,10 @@
     </row>
     <row r="138" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>10</v>
@@ -5052,7 +5052,7 @@
         <v>335</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>251</v>
+        <v>8</v>
       </c>
       <c r="F138" s="1" t="s">
         <v>11</v>
@@ -5066,10 +5066,10 @@
     </row>
     <row r="139" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>79</v>
+        <v>259</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>10</v>
@@ -5092,10 +5092,10 @@
     </row>
     <row r="140" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>10</v>
@@ -5118,10 +5118,10 @@
     </row>
     <row r="141" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>10</v>
@@ -5130,7 +5130,7 @@
         <v>335</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>8</v>
+        <v>265</v>
       </c>
       <c r="F141" s="1" t="s">
         <v>11</v>
@@ -5144,10 +5144,10 @@
     </row>
     <row r="142" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>10</v>
@@ -5156,7 +5156,7 @@
         <v>335</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>8</v>
+        <v>265</v>
       </c>
       <c r="F142" s="1" t="s">
         <v>11</v>
@@ -5170,22 +5170,22 @@
     </row>
     <row r="143" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>8</v>
+        <v>85</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G143" s="1" t="s">
         <v>5</v>
@@ -5196,10 +5196,10 @@
     </row>
     <row r="144" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>263</v>
+        <v>56</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>10</v>
@@ -5208,7 +5208,7 @@
         <v>335</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>265</v>
+        <v>8</v>
       </c>
       <c r="F144" s="1" t="s">
         <v>11</v>
@@ -5220,24 +5220,24 @@
         <v>334</v>
       </c>
     </row>
-    <row r="145" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>265</v>
+        <v>9</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G145" s="1" t="s">
         <v>5</v>
@@ -5246,21 +5246,21 @@
         <v>334</v>
       </c>
     </row>
-    <row r="146" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>267</v>
+        <v>203</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>268</v>
+        <v>204</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>85</v>
+        <v>206</v>
       </c>
       <c r="F146" s="1" t="s">
         <v>4</v>
@@ -5272,21 +5272,21 @@
         <v>334</v>
       </c>
     </row>
-    <row r="147" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>56</v>
+        <v>272</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>335</v>
+        <v>362</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>8</v>
+        <v>208</v>
       </c>
       <c r="F147" s="1" t="s">
         <v>11</v>
@@ -5298,76 +5298,76 @@
         <v>334</v>
       </c>
     </row>
-    <row r="148" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>339</v>
+        <v>353</v>
       </c>
       <c r="E148" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H148" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+      <c r="A149" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="E149" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F148" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G148" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H148" s="1" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A149" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C149" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D149" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="E149" s="1" t="s">
-        <v>206</v>
-      </c>
       <c r="F149" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="H149" s="1" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="150" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>272</v>
+        <v>45</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>208</v>
+        <v>174</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G150" s="1" t="s">
         <v>5</v>
@@ -5376,24 +5376,24 @@
         <v>334</v>
       </c>
     </row>
-    <row r="151" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>274</v>
+        <v>92</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>353</v>
+        <v>335</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>206</v>
+        <v>8</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G151" s="1" t="s">
         <v>5</v>
@@ -5402,47 +5402,47 @@
         <v>334</v>
       </c>
     </row>
-    <row r="152" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>277</v>
+        <v>99</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>9</v>
+        <v>174</v>
       </c>
       <c r="F152" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="H152" s="1" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="153" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>45</v>
+        <v>175</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>360</v>
+        <v>343</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="F153" s="1" t="s">
         <v>4</v>
@@ -5456,19 +5456,19 @@
     </row>
     <row r="154" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>335</v>
+        <v>353</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>8</v>
+        <v>78</v>
       </c>
       <c r="F154" s="1" t="s">
         <v>11</v>
@@ -5482,10 +5482,10 @@
     </row>
     <row r="155" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>280</v>
+        <v>184</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>99</v>
+        <v>283</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>3</v>
@@ -5506,21 +5506,21 @@
         <v>334</v>
       </c>
     </row>
-    <row r="156" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>175</v>
+        <v>284</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>343</v>
+        <v>360</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>30</v>
+        <v>174</v>
       </c>
       <c r="F156" s="1" t="s">
         <v>4</v>
@@ -5532,21 +5532,21 @@
         <v>334</v>
       </c>
     </row>
-    <row r="157" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>79</v>
+        <v>286</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>78</v>
+        <v>288</v>
       </c>
       <c r="F157" s="1" t="s">
         <v>11</v>
@@ -5558,21 +5558,21 @@
         <v>334</v>
       </c>
     </row>
-    <row r="158" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>184</v>
+        <v>289</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>174</v>
+        <v>231</v>
       </c>
       <c r="F158" s="1" t="s">
         <v>4</v>
@@ -5584,21 +5584,21 @@
         <v>334</v>
       </c>
     </row>
-    <row r="159" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>284</v>
+        <v>15</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>174</v>
+        <v>231</v>
       </c>
       <c r="F159" s="1" t="s">
         <v>4</v>
@@ -5612,22 +5612,22 @@
     </row>
     <row r="160" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>288</v>
+        <v>82</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G160" s="1" t="s">
         <v>5</v>
@@ -5636,24 +5636,24 @@
         <v>334</v>
       </c>
     </row>
-    <row r="161" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>289</v>
+        <v>169</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>290</v>
+        <v>170</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>231</v>
+        <v>26</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G161" s="1" t="s">
         <v>5</v>
@@ -5662,24 +5662,24 @@
         <v>334</v>
       </c>
     </row>
-    <row r="162" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>15</v>
+        <v>124</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>231</v>
+        <v>26</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G162" s="1" t="s">
         <v>5</v>
@@ -5690,22 +5690,22 @@
     </row>
     <row r="163" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>292</v>
+        <v>239</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G163" s="1" t="s">
         <v>5</v>
@@ -5714,21 +5714,21 @@
         <v>334</v>
       </c>
     </row>
-    <row r="164" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>169</v>
+        <v>56</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>170</v>
+        <v>296</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>3</v>
+        <v>160</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F164" s="1" t="s">
         <v>11</v>
@@ -5742,19 +5742,19 @@
     </row>
     <row r="165" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>124</v>
+        <v>297</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>26</v>
+        <v>166</v>
       </c>
       <c r="F165" s="1" t="s">
         <v>11</v>
@@ -5766,47 +5766,47 @@
         <v>334</v>
       </c>
     </row>
-    <row r="166" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>239</v>
+        <v>299</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C166" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="F166" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G166" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H166" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+      <c r="A167" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C167" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D166" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="E166" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F166" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G166" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H166" s="1" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" ht="48" x14ac:dyDescent="0.2">
-      <c r="A167" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B167" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="C167" s="1" t="s">
-        <v>160</v>
-      </c>
       <c r="D167" s="1" t="s">
-        <v>343</v>
+        <v>359</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>30</v>
+        <v>231</v>
       </c>
       <c r="F167" s="1" t="s">
         <v>11</v>
@@ -5820,19 +5820,19 @@
     </row>
     <row r="168" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>297</v>
+        <v>185</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>166</v>
+        <v>78</v>
       </c>
       <c r="F168" s="1" t="s">
         <v>11</v>
@@ -5846,19 +5846,19 @@
     </row>
     <row r="169" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>301</v>
+        <v>30</v>
       </c>
       <c r="F169" s="1" t="s">
         <v>11</v>
@@ -5870,21 +5870,21 @@
         <v>334</v>
       </c>
     </row>
-    <row r="170" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>98</v>
+        <v>306</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>3</v>
+        <v>160</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>359</v>
+        <v>340</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>231</v>
+        <v>205</v>
       </c>
       <c r="F170" s="1" t="s">
         <v>11</v>
@@ -5896,12 +5896,12 @@
         <v>334</v>
       </c>
     </row>
-    <row r="171" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>185</v>
+        <v>308</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>10</v>
@@ -5916,7 +5916,7 @@
         <v>11</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="H171" s="1" t="s">
         <v>334</v>
@@ -5924,19 +5924,19 @@
     </row>
     <row r="172" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>304</v>
+        <v>167</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="F172" s="1" t="s">
         <v>11</v>
@@ -5948,21 +5948,21 @@
         <v>334</v>
       </c>
     </row>
-    <row r="173" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>306</v>
+        <v>56</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>160</v>
+        <v>3</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>340</v>
+        <v>359</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>205</v>
+        <v>231</v>
       </c>
       <c r="F173" s="1" t="s">
         <v>11</v>
@@ -5974,27 +5974,27 @@
         <v>334</v>
       </c>
     </row>
-    <row r="174" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>308</v>
+        <v>15</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>78</v>
+        <v>231</v>
       </c>
       <c r="F174" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="H174" s="1" t="s">
         <v>334</v>
@@ -6002,71 +6002,71 @@
     </row>
     <row r="175" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>167</v>
+        <v>98</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D175" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F175" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G175" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H175" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="A176" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F176" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G176" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H176" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="A177" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D177" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="E175" s="1" t="s">
+      <c r="E177" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="F175" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G175" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H175" s="1" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" ht="64" x14ac:dyDescent="0.2">
-      <c r="A176" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B176" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="C176" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D176" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="E176" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="F176" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G176" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H176" s="1" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" ht="64" x14ac:dyDescent="0.2">
-      <c r="A177" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B177" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="C177" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D177" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="E177" s="1" t="s">
-        <v>231</v>
       </c>
       <c r="F177" s="1" t="s">
         <v>11</v>
@@ -6080,19 +6080,19 @@
     </row>
     <row r="178" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>98</v>
+        <v>175</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F178" s="1" t="s">
         <v>11</v>
@@ -6106,10 +6106,10 @@
     </row>
     <row r="179" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>68</v>
+        <v>318</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>10</v>
@@ -6132,19 +6132,19 @@
     </row>
     <row r="180" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>315</v>
+        <v>175</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="F180" s="1" t="s">
         <v>11</v>
@@ -6158,10 +6158,10 @@
     </row>
     <row r="181" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>175</v>
+        <v>318</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>10</v>
@@ -6184,10 +6184,10 @@
     </row>
     <row r="182" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>318</v>
+        <v>169</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>10</v>
@@ -6210,10 +6210,10 @@
     </row>
     <row r="183" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>175</v>
+        <v>88</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>10</v>
@@ -6236,10 +6236,10 @@
     </row>
     <row r="184" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>10</v>
@@ -6260,21 +6260,21 @@
         <v>334</v>
       </c>
     </row>
-    <row r="185" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>169</v>
+        <v>326</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>343</v>
+        <v>359</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>30</v>
+        <v>190</v>
       </c>
       <c r="F185" s="1" t="s">
         <v>11</v>
@@ -6288,19 +6288,19 @@
     </row>
     <row r="186" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>88</v>
+        <v>328</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="F186" s="1" t="s">
         <v>11</v>
@@ -6314,10 +6314,10 @@
     </row>
     <row r="187" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>10</v>
@@ -6335,84 +6335,6 @@
         <v>5</v>
       </c>
       <c r="H187" s="1" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8" ht="64" x14ac:dyDescent="0.2">
-      <c r="A188" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="B188" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="C188" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D188" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="E188" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="F188" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G188" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H188" s="1" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8" ht="48" x14ac:dyDescent="0.2">
-      <c r="A189" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="B189" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="C189" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D189" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="E189" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F189" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G189" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H189" s="1" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8" ht="48" x14ac:dyDescent="0.2">
-      <c r="A190" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="B190" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="C190" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D190" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="E190" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F190" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G190" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H190" s="1" t="s">
         <v>334</v>
       </c>
     </row>
